--- a/System Requirements/PayStub+ Use Case Scenarios and Descriptions.xlsx
+++ b/System Requirements/PayStub+ Use Case Scenarios and Descriptions.xlsx
@@ -1,25 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/70b2933e6a267def/Documents/CCM stuff/SWEN class/SWEN_Project/System Requirements/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_810079A9F86934DA084BDC406EEFF578DAB1CF83" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55BE0F1A-214A-448F-B3B9-D506122F3034}"/>
+  <bookViews>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Add User To Restaurant Group" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Delete Employee From Restaurant" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Schedule Work Days For Employee" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="See Employee Income" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Change Business Settings" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Create Account" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="Create Restaurant Profile" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="Income Input" sheetId="8" r:id="rId11"/>
-    <sheet state="visible" name="Send Message" sheetId="9" r:id="rId12"/>
+    <sheet name="Add User To Restaurant Group" sheetId="1" r:id="rId1"/>
+    <sheet name="Delete Employee From Restaurant" sheetId="2" r:id="rId2"/>
+    <sheet name="Schedule Work Days For Employee" sheetId="3" r:id="rId3"/>
+    <sheet name="See Employee Income" sheetId="4" r:id="rId4"/>
+    <sheet name="Change Business Settings" sheetId="5" r:id="rId5"/>
+    <sheet name="Create Account" sheetId="6" r:id="rId6"/>
+    <sheet name="Create Restaurant Profile" sheetId="7" r:id="rId7"/>
+    <sheet name="Income Input" sheetId="8" r:id="rId8"/>
+    <sheet name="Send Message" sheetId="9" r:id="rId9"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="173">
   <si>
     <t>Use Case Title</t>
   </si>
@@ -30,9 +39,6 @@
     <t>Primary Actor</t>
   </si>
   <si>
-    <t xml:space="preserve">admin and employee </t>
-  </si>
-  <si>
     <t>Level</t>
   </si>
   <si>
@@ -159,9 +165,6 @@
     <t>Admin chooses an employee</t>
   </si>
   <si>
-    <t xml:space="preserve">admin chooses an employee </t>
-  </si>
-  <si>
     <t xml:space="preserve">1.1 System takes user to employee information </t>
   </si>
   <si>
@@ -204,9 +207,6 @@
     <t>Admin didn't put in all of the information</t>
   </si>
   <si>
-    <t>Throw up message saying no info set and return to the resturant group</t>
-  </si>
-  <si>
     <t>See User Income</t>
   </si>
   <si>
@@ -351,9 +351,6 @@
     <t>System keeps preset settings and continues user to home screen</t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
     <t>User hits cancel</t>
   </si>
   <si>
@@ -541,39 +538,51 @@
   </si>
   <si>
     <t>System removed text from textbox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin and Employee </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin chooses an employee </t>
+  </si>
+  <si>
+    <t>Display message saying no info set and return to the resturant group</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -583,7 +592,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -593,85 +602,55 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -861,25 +840,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.25"/>
-    <col customWidth="1" min="2" max="2" width="57.63"/>
-    <col customWidth="1" min="3" max="3" width="50.63"/>
+    <col min="1" max="1" width="18.21875" customWidth="1"/>
+    <col min="2" max="2" width="57.6640625" customWidth="1"/>
+    <col min="3" max="3" width="50.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -887,1597 +871,1632 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="2" t="s">
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="2" t="s">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="2" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>3</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12">
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="2"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>25</v>
-      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.25"/>
-    <col customWidth="1" min="2" max="2" width="57.25"/>
-    <col customWidth="1" min="3" max="3" width="61.0"/>
+    <col min="1" max="1" width="18.21875" customWidth="1"/>
+    <col min="2" max="2" width="57.21875" customWidth="1"/>
+    <col min="3" max="3" width="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="2" t="s">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="2" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>3</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="2" t="s">
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>1</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="C14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="2" t="s">
+    </row>
+    <row r="15" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="C15" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.25"/>
-    <col customWidth="1" min="2" max="2" width="47.0"/>
-    <col customWidth="1" min="3" max="3" width="53.0"/>
+    <col min="1" max="1" width="18.21875" customWidth="1"/>
+    <col min="2" max="2" width="47" customWidth="1"/>
+    <col min="3" max="3" width="53" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>2</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>3</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="B13" s="2" t="s">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="B16" s="2" t="s">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>3</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>4</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>4</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="B19" s="2" t="s">
+    <row r="20" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>5</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="C20" s="2" t="s">
-        <v>61</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.25"/>
-    <col customWidth="1" min="2" max="2" width="44.75"/>
-    <col customWidth="1" min="3" max="3" width="39.88"/>
+    <col min="1" max="1" width="18.21875" customWidth="1"/>
+    <col min="2" max="2" width="44.77734375" customWidth="1"/>
+    <col min="3" max="3" width="39.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B4" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2" t="s">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12">
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.25"/>
-    <col customWidth="1" min="2" max="2" width="49.0"/>
-    <col customWidth="1" min="3" max="3" width="54.5"/>
+    <col min="1" max="1" width="18.21875" customWidth="1"/>
+    <col min="2" max="2" width="49" customWidth="1"/>
+    <col min="3" max="3" width="54.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B4" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="2" t="s">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>3</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="2" t="s">
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>84</v>
-      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:C24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.25"/>
-    <col customWidth="1" min="2" max="2" width="73.75"/>
-    <col customWidth="1" min="3" max="3" width="76.75"/>
+    <col min="1" max="1" width="18.21875" customWidth="1"/>
+    <col min="2" max="2" width="73.77734375" customWidth="1"/>
+    <col min="3" max="3" width="76.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B4" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="2" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>3</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="2" t="s">
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3">
-        <v>4.1</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13">
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>4.2</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>4.3</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="6"/>
-    </row>
-    <row r="16">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>2.1</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>4.2</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>4.2</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>4.3</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>4.3</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>2</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="7">
-        <v>4.3</v>
-      </c>
-      <c r="B21" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>112</v>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>3</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>4</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.25"/>
-    <col customWidth="1" min="2" max="2" width="53.25"/>
-    <col customWidth="1" min="3" max="3" width="87.13"/>
+    <col min="1" max="1" width="18.21875" customWidth="1"/>
+    <col min="2" max="2" width="53.21875" customWidth="1"/>
+    <col min="3" max="3" width="87.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B4" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="B9" s="2" t="s">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>3</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="12">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="B13" s="2" t="s">
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="2" t="s">
+    </row>
+    <row r="19" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>2</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>3</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>4</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="22">
+    </row>
+    <row r="22" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.25"/>
-    <col customWidth="1" min="2" max="2" width="48.88"/>
-    <col customWidth="1" min="3" max="3" width="128.0"/>
+    <col min="1" max="1" width="18.21875" customWidth="1"/>
+    <col min="2" max="2" width="48.88671875" customWidth="1"/>
+    <col min="3" max="3" width="128" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B4" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3">
-        <v>1.1</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="11">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>3.1</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>3.2</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C14" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="15">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="C15" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="C16" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="6"/>
-    </row>
-    <row r="18">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>3.1</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>3.2</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>5.3</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.25"/>
-    <col customWidth="1" min="2" max="2" width="63.63"/>
-    <col customWidth="1" min="3" max="3" width="49.5"/>
+    <col min="1" max="1" width="18.21875" customWidth="1"/>
+    <col min="2" max="2" width="63.6640625" customWidth="1"/>
+    <col min="3" max="3" width="49.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>3</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C10" s="2" t="s">
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>5</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="14">
+    </row>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="C14" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="C15" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>